--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,105 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-15.75</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2514,10 +2614,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D58" t="n">
+        <v>573</v>
       </c>
       <c r="E58" t="n">
         <v>4.21</v>
@@ -2541,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2630,139 +2728,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -2830,41 +2795,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2874,17 +2841,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2893,7 +2860,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2966,7 +2933,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2978,10 +2945,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2989,7 +2956,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3061,22 +3064,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3084,7 +3087,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -3093,6 +3096,101 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3221,7 +3319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,15 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +434,143 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000785</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -486,7 +624,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>高现金毛利战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,19 +634,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>920</v>
       </c>
       <c r="E2" t="n">
-        <v>6.4</v>
+        <v>10.37</v>
       </c>
       <c r="F2" t="n">
-        <v>-15.75</v>
+        <v>-13.81</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -517,7 +653,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-17 09:31</t>
+          <t>2025-07-07 09:31</t>
         </is>
       </c>
     </row>
@@ -527,6 +663,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-15.75</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2639,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2728,139 +2961,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -2928,41 +3028,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2972,17 +3074,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2991,7 +3093,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,7 +3166,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3076,10 +3178,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3087,7 +3189,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3159,22 +3297,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3182,7 +3320,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -3191,6 +3329,101 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3317,101 +3550,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>高现金毛利战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>沃顿科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>920</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-13.81</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,16 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,10 +507,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -535,19 +536,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002492</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -556,7 +557,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -566,6 +567,135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>600410</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1751938260000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>573</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-39.45</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1751938260000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -668,6 +798,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -759,7 +1022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2872,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2961,139 +3224,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3161,41 +3291,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3205,17 +3337,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3224,7 +3356,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3297,7 +3429,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3309,10 +3441,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3320,7 +3452,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3392,22 +3560,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3415,7 +3583,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -3429,7 +3597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,7 +3650,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3492,17 +3660,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600410</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>9.73</v>
+        <v>4.06</v>
       </c>
       <c r="F2" t="n">
-        <v>31.95</v>
+        <v>58.04</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3510,41 +3678,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1751938260000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-39.45</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1751938260000</v>
+        <v>1752024660000</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,17 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,29 +489,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -519,45 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -567,6 +530,101 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -695,7 +753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -856,7 +914,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -868,10 +926,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -880,7 +938,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -897,17 +955,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -916,7 +974,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -926,6 +984,139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1022,7 +1213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3135,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3224,139 +3415,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3424,41 +3482,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3468,17 +3528,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3487,7 +3547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3560,7 +3620,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3572,10 +3632,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3583,7 +3643,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3655,22 +3751,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3678,7 +3774,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,20 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,38 +492,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000785</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-29.58</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>低价小市值股战法</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>000548</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
+      <c r="E4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
         </is>
       </c>
     </row>
@@ -590,41 +667,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -634,17 +713,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -653,7 +732,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -668,7 +747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +805,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -738,10 +817,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -749,7 +828,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -821,22 +936,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -844,7 +959,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -853,6 +968,101 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -981,7 +1191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1142,22 +1352,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1166,7 +1376,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1449,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1251,10 +1461,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1263,7 +1473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1331,27 +1541,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1360,43 +1570,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1643,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1481,10 +1655,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1493,7 +1667,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1684,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1529,7 +1703,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1539,6 +1713,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1635,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1714,7 +2021,7 @@
         <v>5.23</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0196</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1750,7 +2057,7 @@
         <v>4.32</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0092</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1786,7 +2093,7 @@
         <v>3.17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0189</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1822,7 +2129,7 @@
         <v>6.54</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0195</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1858,7 +2165,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1894,7 +2201,7 @@
         <v>13.69</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1930,7 +2237,7 @@
         <v>19.92</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0198</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1966,7 +2273,7 @@
         <v>18.18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2002,7 +2309,7 @@
         <v>19.88</v>
       </c>
       <c r="F10" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2038,7 +2345,7 @@
         <v>21.38</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0204</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2074,7 +2381,7 @@
         <v>13.89</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0124</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2146,7 +2453,7 @@
         <v>6.7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2182,7 +2489,7 @@
         <v>4.6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0165</v>
+        <v>0.02</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2218,7 +2525,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0186</v>
+        <v>0.02</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2254,7 +2561,7 @@
         <v>7.53</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2290,7 +2597,7 @@
         <v>14.62</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0196</v>
+        <v>0.02</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2326,7 +2633,7 @@
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2362,7 +2669,7 @@
         <v>11.32</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2398,7 +2705,7 @@
         <v>6.92</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2434,7 +2741,7 @@
         <v>3.53</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2470,7 +2777,7 @@
         <v>11.9</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2506,7 +2813,7 @@
         <v>13.99</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0194</v>
+        <v>0.02</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2542,7 +2849,7 @@
         <v>10.04</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0192</v>
+        <v>0.02</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2578,7 +2885,7 @@
         <v>12.78</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0059</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2611,10 +2918,10 @@
         <v>301395</v>
       </c>
       <c r="E27" t="n">
-        <v>11.008</v>
+        <v>11.01</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2650,7 +2957,7 @@
         <v>18.17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2686,7 +2993,7 @@
         <v>19.91</v>
       </c>
       <c r="F29" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2722,7 +3029,7 @@
         <v>6.38</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0198</v>
+        <v>0.02</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2758,7 +3065,7 @@
         <v>7.66</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0161</v>
+        <v>0.02</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2794,7 +3101,7 @@
         <v>2.31</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0203</v>
+        <v>0.02</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2830,7 +3137,7 @@
         <v>4.72</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2866,7 +3173,7 @@
         <v>3.91</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0206</v>
+        <v>0.02</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2902,7 +3209,7 @@
         <v>7.48</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2938,7 +3245,7 @@
         <v>6.64</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2974,7 +3281,7 @@
         <v>16.35</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3010,7 +3317,7 @@
         <v>15.75</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0198</v>
+        <v>0.02</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3046,7 +3353,7 @@
         <v>4.78</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3082,7 +3389,7 @@
         <v>8.74</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0185</v>
+        <v>0.02</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3118,7 +3425,7 @@
         <v>13.23</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0128</v>
+        <v>0.01</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3154,7 +3461,7 @@
         <v>4.15</v>
       </c>
       <c r="F42" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3226,7 +3533,7 @@
         <v>5.34</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3262,7 +3569,7 @@
         <v>9.07</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3298,7 +3605,7 @@
         <v>11.33</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0134</v>
+        <v>0.01</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3334,7 +3641,7 @@
         <v>62.1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0181</v>
+        <v>0.02</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3370,7 +3677,7 @@
         <v>6.09</v>
       </c>
       <c r="F48" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3406,7 +3713,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3442,7 +3749,7 @@
         <v>12.57</v>
       </c>
       <c r="F50" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3478,7 +3785,7 @@
         <v>17.66</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0152</v>
+        <v>0.02</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3514,7 +3821,7 @@
         <v>7.4</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0111</v>
+        <v>0.01</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3550,7 +3857,7 @@
         <v>10.44</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0047</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3586,7 +3893,7 @@
         <v>14.14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0052</v>
+        <v>0.01</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3622,7 +3929,7 @@
         <v>18.49</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0108</v>
+        <v>0.01</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3658,7 +3965,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0057</v>
+        <v>0.01</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3694,7 +4001,7 @@
         <v>14.04</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0104</v>
+        <v>0.01</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3748,7 +4055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3843,137 +4150,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,21 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,19 +503,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>银座股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>600858</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.44</v>
+        <v>5.74</v>
       </c>
       <c r="F2" t="n">
-        <v>29.32</v>
+        <v>10.17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -523,36 +524,36 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-28 09:31</t>
+          <t>2025-07-29 09:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>银座股份</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>600858</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.88</v>
+        <v>5.74</v>
       </c>
       <c r="F3" t="n">
-        <v>-29.58</v>
+        <v>10.17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -561,45 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-5.71</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-28 09:31</t>
+          <t>2025-07-29 09:31</t>
         </is>
       </c>
     </row>
@@ -614,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +630,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -677,17 +640,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>9.75</v>
+        <v>4.21</v>
       </c>
       <c r="F2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -696,43 +661,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
+          <t>2025-07-15 09:31</t>
         </is>
       </c>
     </row>
@@ -800,41 +729,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2492</v>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600410</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -844,17 +777,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2492</v>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000785</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -863,7 +798,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -878,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,7 +871,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -944,14 +879,16 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2492</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -959,7 +896,45 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1031,22 +1006,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>573</v>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1054,7 +1031,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -1063,6 +1040,103 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1134,8 +1208,10 @@
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>600410</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600410</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>9.73</v>
@@ -1168,8 +1244,10 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>573</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>4.03</v>
@@ -1191,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,8 +1341,10 @@
           <t>沃顿科技</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>920</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000920</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>10.37</v>
@@ -1294,7 +1374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,36 +1427,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000785</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-29.58</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>低价小市值股战法</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000548</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
         </is>
       </c>
     </row>
@@ -1449,22 +1607,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>573</v>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000548</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1473,7 +1633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1706,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1554,14 +1714,16 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>573</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1570,7 +1732,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,27 +1800,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>785</v>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1667,43 +1831,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1904,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1784,14 +1912,16 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>785</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000785</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1800,7 +1930,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1817,17 +1947,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2492</v>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1836,7 +1968,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -1846,6 +1978,143 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000785</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1917,8 +2186,10 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2492</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002492</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>6.4</v>
@@ -1942,7 +2213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2014,8 +2285,10 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>548</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000548</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>5.23</v>
@@ -2050,8 +2323,10 @@
           <t>*ST亚太</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>691</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000691</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>4.32</v>
@@ -2086,8 +2361,10 @@
           <t>和展能源</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>809</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000809</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>3.17</v>
@@ -2122,8 +2399,10 @@
           <t>ST数源</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>909</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000909</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>6.54</v>
@@ -2158,8 +2437,10 @@
           <t>*ST兰黄</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>929</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000929</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>8.369999999999999</v>
@@ -2194,8 +2475,10 @@
           <t>金房能源</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1210</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>13.69</v>
@@ -2230,8 +2513,10 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1231</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>19.92</v>
@@ -2266,8 +2551,10 @@
           <t>坤泰股份</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1260</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>001260</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>18.18</v>
@@ -2302,8 +2589,10 @@
           <t>光华股份</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1333</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>001333</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>19.88</v>
@@ -2338,8 +2627,10 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1336</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>21.38</v>
@@ -2374,8 +2665,10 @@
           <t>南矿集团</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1360</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>001360</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>13.89</v>
@@ -2410,8 +2703,10 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1366</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>12.26</v>
@@ -2446,8 +2741,10 @@
           <t>双箭股份</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2381</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>002381</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>6.7</v>
@@ -2482,8 +2779,10 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2687</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>002687</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>4.6</v>
@@ -2518,8 +2817,10 @@
           <t>世龙实业</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2748</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>002748</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>9.619999999999999</v>
@@ -2554,8 +2855,10 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2817</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>002817</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>7.53</v>
@@ -2590,8 +2893,10 @@
           <t>名雕股份</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2830</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>002830</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>14.62</v>
@@ -2626,8 +2931,10 @@
           <t>海象新材</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>3011</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>003011</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -2662,8 +2969,10 @@
           <t>金富科技</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>3018</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>003018</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>11.32</v>
@@ -2698,8 +3007,10 @@
           <t>锐奇股份</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>300126</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>300126</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>6.92</v>
@@ -2734,8 +3045,10 @@
           <t>维尔利</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>300190</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>300190</t>
+        </is>
       </c>
       <c r="E22" t="n">
         <v>3.53</v>
@@ -2770,8 +3083,10 @@
           <t>三雄极光</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>300625</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>300625</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>11.9</v>
@@ -2806,8 +3121,10 @@
           <t>浙江力诺</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>300838</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>300838</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>13.99</v>
@@ -2842,8 +3159,10 @@
           <t>华骐环保</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>300929</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>300929</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>10.04</v>
@@ -2878,8 +3197,10 @@
           <t>*ST清研</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>301288</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>301288</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>12.78</v>
@@ -2914,8 +3235,10 @@
           <t>仁信新材</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>301395</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>301395</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>11.01</v>
@@ -2950,8 +3273,10 @@
           <t>森泰股份</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>301429</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>301429</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>18.17</v>
@@ -2986,8 +3311,10 @@
           <t>港通医疗</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>301515</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>301515</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>19.91</v>
@@ -3022,8 +3349,10 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>600235</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>600235</t>
+        </is>
       </c>
       <c r="E30" t="n">
         <v>6.38</v>
@@ -3058,8 +3387,10 @@
           <t>恒丰纸业</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>600356</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>600356</t>
+        </is>
       </c>
       <c r="E31" t="n">
         <v>7.66</v>
@@ -3094,8 +3425,10 @@
           <t>腾达建设</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>600512</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>600512</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>2.31</v>
@@ -3130,8 +3463,10 @@
           <t>菲达环保</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>600526</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>600526</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>4.72</v>
@@ -3166,8 +3501,10 @@
           <t>京投发展</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>600683</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>600683</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>3.91</v>
@@ -3202,8 +3539,10 @@
           <t>博闻科技</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>600883</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>600883</t>
+        </is>
       </c>
       <c r="E35" t="n">
         <v>7.48</v>
@@ -3238,8 +3577,10 @@
           <t>奥康国际</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>603001</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
       </c>
       <c r="E36" t="n">
         <v>6.64</v>
@@ -3274,8 +3615,10 @@
           <t>彩蝶实业</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>603073</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>603073</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v>16.35</v>
@@ -3310,8 +3653,10 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>603172</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>603172</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>15.75</v>
@@ -3346,8 +3691,10 @@
           <t>汇通集团</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>603176</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>603176</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>4.78</v>
@@ -3382,8 +3729,10 @@
           <t>德创环保</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>603177</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>603177</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>8.74</v>
@@ -3418,8 +3767,10 @@
           <t>嘉华股份</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>603182</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>603182</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v>13.23</v>
@@ -3454,8 +3805,10 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>603183</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>603183</t>
+        </is>
       </c>
       <c r="E42" t="n">
         <v>4.15</v>
@@ -3490,8 +3843,10 @@
           <t>梅轮电梯</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>603321</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>603321</t>
+        </is>
       </c>
       <c r="E43" t="n">
         <v>7.45</v>
@@ -3526,8 +3881,10 @@
           <t>天创时尚</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>603608</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>603608</t>
+        </is>
       </c>
       <c r="E44" t="n">
         <v>5.34</v>
@@ -3562,8 +3919,10 @@
           <t>建发合诚</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>603909</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>603909</t>
+        </is>
       </c>
       <c r="E45" t="n">
         <v>9.07</v>
@@ -3598,8 +3957,10 @@
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>603926</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>603926</t>
+        </is>
       </c>
       <c r="E46" t="n">
         <v>11.33</v>
@@ -3634,8 +3995,10 @@
           <t>炬芯科技</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>688049</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>688049</t>
+        </is>
       </c>
       <c r="E47" t="n">
         <v>62.1</v>
@@ -3670,8 +4033,10 @@
           <t>申联生物</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>688098</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>688098</t>
+        </is>
       </c>
       <c r="E48" t="n">
         <v>6.09</v>
@@ -3706,8 +4071,10 @@
           <t>高铁电气</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>688285</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>688285</t>
+        </is>
       </c>
       <c r="E49" t="n">
         <v>8.130000000000001</v>
@@ -3742,8 +4109,10 @@
           <t>复洁环保</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>688335</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>688335</t>
+        </is>
       </c>
       <c r="E50" t="n">
         <v>12.57</v>
@@ -3778,8 +4147,10 @@
           <t>工大高科</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>688367</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>688367</t>
+        </is>
       </c>
       <c r="E51" t="n">
         <v>17.66</v>
@@ -3814,8 +4185,10 @@
           <t>科美诊断</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>688468</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>688468</t>
+        </is>
       </c>
       <c r="E52" t="n">
         <v>7.4</v>
@@ -3850,8 +4223,10 @@
           <t>九州一轨</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>688485</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>688485</t>
+        </is>
       </c>
       <c r="E53" t="n">
         <v>10.44</v>
@@ -3886,8 +4261,10 @@
           <t>金冠电气</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>688517</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>688517</t>
+        </is>
       </c>
       <c r="E54" t="n">
         <v>14.14</v>
@@ -3922,8 +4299,10 @@
           <t>康众医疗</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>688607</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>688607</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>18.49</v>
@@ -3958,8 +4337,10 @@
           <t>元琛科技</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>688659</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>688659</t>
+        </is>
       </c>
       <c r="E56" t="n">
         <v>8.789999999999999</v>
@@ -3994,8 +4375,10 @@
           <t>科汇股份</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>688681</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>688681</t>
+        </is>
       </c>
       <c r="E57" t="n">
         <v>14.04</v>
@@ -4030,8 +4413,10 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>573</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
       </c>
       <c r="E58" t="n">
         <v>4.21</v>
@@ -4047,103 +4432,6 @@
       <c r="H58" t="inlineStr">
         <is>
           <t>2025-07-16 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>573</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:31</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,8 @@
           <t>银座股份</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600858</t>
-        </is>
+      <c r="D2" t="n">
+        <v>600858</v>
       </c>
       <c r="E2" t="n">
         <v>5.74</v>
@@ -531,29 +529,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银座股份</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600858</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.74</v>
+        <v>7.61</v>
       </c>
       <c r="F3" t="n">
-        <v>10.17</v>
+        <v>-0.66</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -562,7 +560,425 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-29 09:31</t>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600159</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>美芝股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002856</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>603385</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>603172</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>曙光股份</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600303</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>002679</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>铁流股份</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>603926</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中重科技</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>603135</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>002999</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:31</t>
         </is>
       </c>
     </row>
@@ -643,10 +1059,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
         <v>4.21</v>
@@ -742,10 +1156,8 @@
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600410</t>
-        </is>
+      <c r="D2" t="n">
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
         <v>9.75</v>
@@ -780,10 +1192,8 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+      <c r="D3" t="n">
+        <v>785</v>
       </c>
       <c r="E3" t="n">
         <v>3.07</v>
@@ -879,10 +1289,8 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
         <v>6.16</v>
@@ -915,10 +1323,8 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2492</v>
       </c>
       <c r="E3" t="n">
         <v>6.16</v>
@@ -1014,10 +1420,8 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -1111,10 +1515,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
         <v>4.06</v>
@@ -1208,10 +1610,8 @@
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600410</t>
-        </is>
+      <c r="D2" t="n">
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
         <v>9.73</v>
@@ -1244,10 +1644,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D3" t="n">
+        <v>573</v>
       </c>
       <c r="E3" t="n">
         <v>4.03</v>
@@ -1341,10 +1739,8 @@
           <t>沃顿科技</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000920</t>
-        </is>
+      <c r="D2" t="n">
+        <v>920</v>
       </c>
       <c r="E2" t="n">
         <v>10.37</v>
@@ -1440,10 +1836,8 @@
           <t>梦网科技</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2123</v>
       </c>
       <c r="E2" t="n">
         <v>14.44</v>
@@ -1478,10 +1872,8 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+      <c r="D3" t="n">
+        <v>785</v>
       </c>
       <c r="E3" t="n">
         <v>2.88</v>
@@ -1516,10 +1908,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D4" t="n">
+        <v>548</v>
       </c>
       <c r="E4" t="n">
         <v>5.59</v>
@@ -1615,10 +2005,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D2" t="n">
+        <v>548</v>
       </c>
       <c r="E2" t="n">
         <v>5.6</v>
@@ -1714,10 +2102,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
         <v>4.19</v>
@@ -1813,10 +2199,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D2" t="n">
+        <v>573</v>
       </c>
       <c r="E2" t="n">
         <v>4.25</v>
@@ -1912,10 +2296,8 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+      <c r="D2" t="n">
+        <v>785</v>
       </c>
       <c r="E2" t="n">
         <v>3.08</v>
@@ -1950,10 +2332,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D3" t="n">
+        <v>573</v>
       </c>
       <c r="E3" t="n">
         <v>4.25</v>
@@ -2049,10 +2429,8 @@
           <t>居然智家</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000785</t>
-        </is>
+      <c r="D2" t="n">
+        <v>785</v>
       </c>
       <c r="E2" t="n">
         <v>3.01</v>
@@ -2087,10 +2465,8 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2492</v>
       </c>
       <c r="E3" t="n">
         <v>6.45</v>
@@ -2186,10 +2562,8 @@
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002492</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
         <v>6.4</v>
@@ -2285,10 +2659,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="D2" t="n">
+        <v>548</v>
       </c>
       <c r="E2" t="n">
         <v>5.23</v>
@@ -2323,10 +2695,8 @@
           <t>*ST亚太</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000691</t>
-        </is>
+      <c r="D3" t="n">
+        <v>691</v>
       </c>
       <c r="E3" t="n">
         <v>4.32</v>
@@ -2361,10 +2731,8 @@
           <t>和展能源</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000809</t>
-        </is>
+      <c r="D4" t="n">
+        <v>809</v>
       </c>
       <c r="E4" t="n">
         <v>3.17</v>
@@ -2399,10 +2767,8 @@
           <t>ST数源</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000909</t>
-        </is>
+      <c r="D5" t="n">
+        <v>909</v>
       </c>
       <c r="E5" t="n">
         <v>6.54</v>
@@ -2437,10 +2803,8 @@
           <t>*ST兰黄</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000929</t>
-        </is>
+      <c r="D6" t="n">
+        <v>929</v>
       </c>
       <c r="E6" t="n">
         <v>8.369999999999999</v>
@@ -2475,10 +2839,8 @@
           <t>金房能源</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1210</v>
       </c>
       <c r="E7" t="n">
         <v>13.69</v>
@@ -2513,10 +2875,8 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1231</v>
       </c>
       <c r="E8" t="n">
         <v>19.92</v>
@@ -2551,10 +2911,8 @@
           <t>坤泰股份</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>001260</t>
-        </is>
+      <c r="D9" t="n">
+        <v>1260</v>
       </c>
       <c r="E9" t="n">
         <v>18.18</v>
@@ -2589,10 +2947,8 @@
           <t>光华股份</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>001333</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1333</v>
       </c>
       <c r="E10" t="n">
         <v>19.88</v>
@@ -2627,10 +2983,8 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1336</v>
       </c>
       <c r="E11" t="n">
         <v>21.38</v>
@@ -2665,10 +3019,8 @@
           <t>南矿集团</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>001360</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1360</v>
       </c>
       <c r="E12" t="n">
         <v>13.89</v>
@@ -2703,10 +3055,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1366</v>
       </c>
       <c r="E13" t="n">
         <v>12.26</v>
@@ -2741,10 +3091,8 @@
           <t>双箭股份</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
+      <c r="D14" t="n">
+        <v>2381</v>
       </c>
       <c r="E14" t="n">
         <v>6.7</v>
@@ -2779,10 +3127,8 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>002687</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2687</v>
       </c>
       <c r="E15" t="n">
         <v>4.6</v>
@@ -2817,10 +3163,8 @@
           <t>世龙实业</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>002748</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2748</v>
       </c>
       <c r="E16" t="n">
         <v>9.619999999999999</v>
@@ -2855,10 +3199,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2817</v>
       </c>
       <c r="E17" t="n">
         <v>7.53</v>
@@ -2893,10 +3235,8 @@
           <t>名雕股份</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002830</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2830</v>
       </c>
       <c r="E18" t="n">
         <v>14.62</v>
@@ -2931,10 +3271,8 @@
           <t>海象新材</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>003011</t>
-        </is>
+      <c r="D19" t="n">
+        <v>3011</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -2969,10 +3307,8 @@
           <t>金富科技</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>003018</t>
-        </is>
+      <c r="D20" t="n">
+        <v>3018</v>
       </c>
       <c r="E20" t="n">
         <v>11.32</v>
@@ -3007,10 +3343,8 @@
           <t>锐奇股份</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>300126</t>
-        </is>
+      <c r="D21" t="n">
+        <v>300126</v>
       </c>
       <c r="E21" t="n">
         <v>6.92</v>
@@ -3045,10 +3379,8 @@
           <t>维尔利</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>300190</t>
-        </is>
+      <c r="D22" t="n">
+        <v>300190</v>
       </c>
       <c r="E22" t="n">
         <v>3.53</v>
@@ -3083,10 +3415,8 @@
           <t>三雄极光</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>300625</t>
-        </is>
+      <c r="D23" t="n">
+        <v>300625</v>
       </c>
       <c r="E23" t="n">
         <v>11.9</v>
@@ -3121,10 +3451,8 @@
           <t>浙江力诺</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>300838</t>
-        </is>
+      <c r="D24" t="n">
+        <v>300838</v>
       </c>
       <c r="E24" t="n">
         <v>13.99</v>
@@ -3159,10 +3487,8 @@
           <t>华骐环保</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>300929</t>
-        </is>
+      <c r="D25" t="n">
+        <v>300929</v>
       </c>
       <c r="E25" t="n">
         <v>10.04</v>
@@ -3197,10 +3523,8 @@
           <t>*ST清研</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>301288</t>
-        </is>
+      <c r="D26" t="n">
+        <v>301288</v>
       </c>
       <c r="E26" t="n">
         <v>12.78</v>
@@ -3235,10 +3559,8 @@
           <t>仁信新材</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>301395</t>
-        </is>
+      <c r="D27" t="n">
+        <v>301395</v>
       </c>
       <c r="E27" t="n">
         <v>11.01</v>
@@ -3273,10 +3595,8 @@
           <t>森泰股份</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>301429</t>
-        </is>
+      <c r="D28" t="n">
+        <v>301429</v>
       </c>
       <c r="E28" t="n">
         <v>18.17</v>
@@ -3311,10 +3631,8 @@
           <t>港通医疗</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>301515</t>
-        </is>
+      <c r="D29" t="n">
+        <v>301515</v>
       </c>
       <c r="E29" t="n">
         <v>19.91</v>
@@ -3349,10 +3667,8 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>600235</t>
-        </is>
+      <c r="D30" t="n">
+        <v>600235</v>
       </c>
       <c r="E30" t="n">
         <v>6.38</v>
@@ -3387,10 +3703,8 @@
           <t>恒丰纸业</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>600356</t>
-        </is>
+      <c r="D31" t="n">
+        <v>600356</v>
       </c>
       <c r="E31" t="n">
         <v>7.66</v>
@@ -3425,10 +3739,8 @@
           <t>腾达建设</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>600512</t>
-        </is>
+      <c r="D32" t="n">
+        <v>600512</v>
       </c>
       <c r="E32" t="n">
         <v>2.31</v>
@@ -3463,10 +3775,8 @@
           <t>菲达环保</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>600526</t>
-        </is>
+      <c r="D33" t="n">
+        <v>600526</v>
       </c>
       <c r="E33" t="n">
         <v>4.72</v>
@@ -3501,10 +3811,8 @@
           <t>京投发展</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>600683</t>
-        </is>
+      <c r="D34" t="n">
+        <v>600683</v>
       </c>
       <c r="E34" t="n">
         <v>3.91</v>
@@ -3539,10 +3847,8 @@
           <t>博闻科技</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>600883</t>
-        </is>
+      <c r="D35" t="n">
+        <v>600883</v>
       </c>
       <c r="E35" t="n">
         <v>7.48</v>
@@ -3577,10 +3883,8 @@
           <t>奥康国际</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
+      <c r="D36" t="n">
+        <v>603001</v>
       </c>
       <c r="E36" t="n">
         <v>6.64</v>
@@ -3615,10 +3919,8 @@
           <t>彩蝶实业</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>603073</t>
-        </is>
+      <c r="D37" t="n">
+        <v>603073</v>
       </c>
       <c r="E37" t="n">
         <v>16.35</v>
@@ -3653,10 +3955,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="D38" t="n">
+        <v>603172</v>
       </c>
       <c r="E38" t="n">
         <v>15.75</v>
@@ -3691,10 +3991,8 @@
           <t>汇通集团</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>603176</t>
-        </is>
+      <c r="D39" t="n">
+        <v>603176</v>
       </c>
       <c r="E39" t="n">
         <v>4.78</v>
@@ -3729,10 +4027,8 @@
           <t>德创环保</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>603177</t>
-        </is>
+      <c r="D40" t="n">
+        <v>603177</v>
       </c>
       <c r="E40" t="n">
         <v>8.74</v>
@@ -3767,10 +4063,8 @@
           <t>嘉华股份</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>603182</t>
-        </is>
+      <c r="D41" t="n">
+        <v>603182</v>
       </c>
       <c r="E41" t="n">
         <v>13.23</v>
@@ -3805,10 +4099,8 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>603183</t>
-        </is>
+      <c r="D42" t="n">
+        <v>603183</v>
       </c>
       <c r="E42" t="n">
         <v>4.15</v>
@@ -3843,10 +4135,8 @@
           <t>梅轮电梯</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>603321</t>
-        </is>
+      <c r="D43" t="n">
+        <v>603321</v>
       </c>
       <c r="E43" t="n">
         <v>7.45</v>
@@ -3881,10 +4171,8 @@
           <t>天创时尚</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>603608</t>
-        </is>
+      <c r="D44" t="n">
+        <v>603608</v>
       </c>
       <c r="E44" t="n">
         <v>5.34</v>
@@ -3919,10 +4207,8 @@
           <t>建发合诚</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>603909</t>
-        </is>
+      <c r="D45" t="n">
+        <v>603909</v>
       </c>
       <c r="E45" t="n">
         <v>9.07</v>
@@ -3957,10 +4243,8 @@
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>603926</t>
-        </is>
+      <c r="D46" t="n">
+        <v>603926</v>
       </c>
       <c r="E46" t="n">
         <v>11.33</v>
@@ -3995,10 +4279,8 @@
           <t>炬芯科技</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>688049</t>
-        </is>
+      <c r="D47" t="n">
+        <v>688049</v>
       </c>
       <c r="E47" t="n">
         <v>62.1</v>
@@ -4033,10 +4315,8 @@
           <t>申联生物</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>688098</t>
-        </is>
+      <c r="D48" t="n">
+        <v>688098</v>
       </c>
       <c r="E48" t="n">
         <v>6.09</v>
@@ -4071,10 +4351,8 @@
           <t>高铁电气</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>688285</t>
-        </is>
+      <c r="D49" t="n">
+        <v>688285</v>
       </c>
       <c r="E49" t="n">
         <v>8.130000000000001</v>
@@ -4109,10 +4387,8 @@
           <t>复洁环保</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>688335</t>
-        </is>
+      <c r="D50" t="n">
+        <v>688335</v>
       </c>
       <c r="E50" t="n">
         <v>12.57</v>
@@ -4147,10 +4423,8 @@
           <t>工大高科</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>688367</t>
-        </is>
+      <c r="D51" t="n">
+        <v>688367</v>
       </c>
       <c r="E51" t="n">
         <v>17.66</v>
@@ -4185,10 +4459,8 @@
           <t>科美诊断</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>688468</t>
-        </is>
+      <c r="D52" t="n">
+        <v>688468</v>
       </c>
       <c r="E52" t="n">
         <v>7.4</v>
@@ -4223,10 +4495,8 @@
           <t>九州一轨</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>688485</t>
-        </is>
+      <c r="D53" t="n">
+        <v>688485</v>
       </c>
       <c r="E53" t="n">
         <v>10.44</v>
@@ -4261,10 +4531,8 @@
           <t>金冠电气</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>688517</t>
-        </is>
+      <c r="D54" t="n">
+        <v>688517</v>
       </c>
       <c r="E54" t="n">
         <v>14.14</v>
@@ -4299,10 +4567,8 @@
           <t>康众医疗</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>688607</t>
-        </is>
+      <c r="D55" t="n">
+        <v>688607</v>
       </c>
       <c r="E55" t="n">
         <v>18.49</v>
@@ -4337,10 +4603,8 @@
           <t>元琛科技</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>688659</t>
-        </is>
+      <c r="D56" t="n">
+        <v>688659</v>
       </c>
       <c r="E56" t="n">
         <v>8.789999999999999</v>
@@ -4375,10 +4639,8 @@
           <t>科汇股份</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>688681</t>
-        </is>
+      <c r="D57" t="n">
+        <v>688681</v>
       </c>
       <c r="E57" t="n">
         <v>14.04</v>
@@ -4413,10 +4675,8 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>000573</t>
-        </is>
+      <c r="D58" t="n">
+        <v>573</v>
       </c>
       <c r="E58" t="n">
         <v>4.21</v>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,23 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -504,19 +505,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美芝股份</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002856</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.95</v>
+        <v>14.27</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.03</v>
+        <v>-30.01</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -525,729 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600493</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>一彬科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德联集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>春雪食品</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>605567</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>百达精工</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>603331</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603385</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰股份</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>600232</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>002381</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中重科技</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>603135</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>林海股份</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>600099</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>曙光股份</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>600303</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>002679</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>友好集团</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>600778</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:31</t>
+          <t>2025-08-01 09:31</t>
         </is>
       </c>
     </row>
@@ -1257,6 +536,103 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-15.75</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3369,7 +2745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3458,139 +2834,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3658,41 +2901,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3702,17 +2947,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3721,7 +2966,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3736,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3794,7 +3039,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3806,10 +3051,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3817,7 +3062,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3889,22 +3170,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3912,7 +3193,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -3921,6 +3202,101 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4049,7 +3425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4152,6 +3528,787 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>美芝股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2856</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>600493</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1278</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2666</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>593</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>605567</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>百达精工</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>603331</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>603385</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰股份</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>600232</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中重科技</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>603135</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>600159</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>林海股份</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>600099</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>603137</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>曙光股份</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>600303</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>友好集团</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>600778</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4675,7 +4832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4836,103 +4993,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5005,22 +5065,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5029,7 +5089,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5102,7 +5162,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5114,10 +5174,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5126,7 +5186,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5194,27 +5254,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5223,43 +5283,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5356,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5344,10 +5368,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5356,7 +5380,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -5373,17 +5397,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5392,7 +5416,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5460,36 +5484,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>低价小市值股战法</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2492</v>
       </c>
-      <c r="E2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-15.75</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:31</t>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,24 +7,25 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -514,10 +515,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -526,7 +527,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
         </is>
       </c>
     </row>
@@ -536,6 +537,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2745,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2834,139 +2968,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3034,41 +3035,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3078,17 +3081,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3097,7 +3100,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3170,7 +3173,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3182,10 +3185,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3193,7 +3196,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3265,22 +3304,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3288,7 +3327,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -3297,6 +3336,101 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3528,6 +3662,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4832,7 +5063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4993,103 +5224,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5162,22 +5296,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5186,7 +5320,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5393,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5271,10 +5405,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5283,7 +5417,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5351,27 +5485,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5380,43 +5514,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5587,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5501,10 +5599,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5513,7 +5611,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -5530,17 +5628,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5549,7 +5647,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_portfolio_today.xlsx
@@ -7,25 +7,26 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -506,19 +507,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>603322</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>38.81</v>
       </c>
       <c r="F2" t="n">
-        <v>30.87</v>
+        <v>18.72</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -527,7 +528,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-08-07 09:31</t>
         </is>
       </c>
     </row>
@@ -600,7 +601,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -612,10 +613,10 @@
         <v>785</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-20.82</v>
+        <v>31.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -624,7 +625,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -641,17 +642,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>4.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.32</v>
+        <v>-43.54</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -660,7 +661,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 09:31</t>
+          <t>2025-07-22 09:31</t>
         </is>
       </c>
     </row>
@@ -670,6 +671,139 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -766,7 +900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2879,7 +3013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2968,139 +3102,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2025-07-15 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>600410</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>785</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3168,41 +3169,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2492</v>
+        <v>600410</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>9.75</v>
       </c>
       <c r="F2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1752197460000</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:31</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>低价小市值股战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3212,17 +3215,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2492</v>
+        <v>785</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>3.07</v>
       </c>
       <c r="F3" t="n">
-        <v>36.74</v>
+        <v>21.69</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3231,7 +3234,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-11 09:31</t>
+          <t>2025-07-14 09:31</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3304,7 +3307,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3316,10 +3319,10 @@
         <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.2</v>
+        <v>36.74</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3327,7 +3330,43 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752111060000</v>
+        <v>1752197460000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 09:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3399,22 +3438,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>2492</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>58.04</v>
+        <v>-7.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3422,7 +3461,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1752024660000</v>
+        <v>1752111060000</v>
       </c>
     </row>
   </sheetData>
@@ -3431,6 +3470,101 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小市值股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>573</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1752024660000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3552,103 +3686,6 @@
       </c>
       <c r="H3" t="n">
         <v>1751938260000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>高现金毛利战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>沃顿科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>920</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-13.81</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:31</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3757,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3732,10 +3769,10 @@
         <v>2123</v>
       </c>
       <c r="E2" t="n">
-        <v>14.27</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.01</v>
+        <v>30.87</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3744,7 +3781,104 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>高现金毛利战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>920</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13.81</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:31</t>
         </is>
       </c>
     </row>
@@ -3754,6 +3888,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4534,7 +4765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5063,7 +5294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5224,103 +5455,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>2025-07-28 09:31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5393,22 +5527,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5417,7 +5551,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 09:31</t>
+          <t>2025-07-25 09:31</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5624,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5502,10 +5636,10 @@
         <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5514,7 +5648,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-23 09:31</t>
+          <t>2025-07-24 09:31</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5582,27 +5716,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小市值股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5611,43 +5745,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小市值股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>573</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 09:31</t>
+          <t>2025-07-23 09:31</t>
         </is>
       </c>
     </row>
